--- a/biology/Botanique/Cystoseira_humilis/Cystoseira_humilis.xlsx
+++ b/biology/Botanique/Cystoseira_humilis/Cystoseira_humilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cystoseira humilis est une espèce d'algues brunes de la famille des Sargassaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Synonymes hétérotypiques, selon Algaebase[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Synonymes hétérotypiques, selon Algaebase :
 Cystoseira barbata var. pumila Montagne, 1841
 Cystoseira pumila Kützing 1860
 Cystoseira canariensis Sauvageau, 1912</t>
@@ -544,9 +558,11 @@
           <t>Sous-espèces, formes et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Worms[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Worms :
 Variété Cystoseira humilis var. myriophylloides (Sauvageau) J.H.Price &amp; D.M.John, 1978</t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son aire de distribution s'étend entre les côtes de l'Europe de l'ouest (de l'Angleterre à la Mauritanie), des îles de la Macaronésie et les côtes méditerranéennes[1],[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son aire de distribution s'étend entre les côtes de l'Europe de l'ouest (de l'Angleterre à la Mauritanie), des îles de la Macaronésie et les côtes méditerranéennes,.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se développe en milieux battus, dans les cuvettes de l'étage médiolittoral[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se développe en milieux battus, dans les cuvettes de l'étage médiolittoral.
 </t>
         </is>
       </c>
